--- a/doc/データフロー_F3.xlsx
+++ b/doc/データフロー_F3.xlsx
@@ -1,12 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C7DE6B-2B4C-4682-8B67-36663D5D77FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="シート1" sheetId="1" r:id="rId4"/>
+    <sheet name="シート1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -52,19 +73,16 @@
     <t>1.前回保存した時刻と現在の時刻を比較する。同じの場合、login.jspには遷移せずmain.jspに遷移する。</t>
   </si>
   <si>
-    <t>・DateDAO.javaで前回日付を取得し、現在時刻と比較</t>
-  </si>
-  <si>
     <t>・違う日付の場合、UserDAOでTポイントをプラスし、</t>
   </si>
   <si>
-    <t xml:space="preserve">　MissionDAOでミッションを3つ取得する</t>
+    <t>　MissionDAOでミッションを3つ取得する</t>
   </si>
   <si>
     <t>・UserDAO.javaでuserテーブルからchar_idを取得し、</t>
   </si>
   <si>
-    <t xml:space="preserve">　それを外部キーにCharaDAOでcharacterテーブルからキャラクター情報を取得</t>
+    <t>　それを外部キーにCharaDAOでcharacterテーブルからキャラクター情報を取得</t>
   </si>
   <si>
     <t>・UserDAOでTポイントを取得</t>
@@ -122,27 +140,91 @@
   </si>
   <si>
     <t>result.jsp</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DateDAO.java</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>で前回日付を取得し、現在時刻と比較</t>
+    </r>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -150,7 +232,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -160,31 +242,41 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -195,11 +287,17 @@
     <xdr:ext cx="5010150" cy="3009900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.png" title="画像"/>
+        <xdr:cNvPr id="2" name="image5.png" title="画像">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -223,11 +321,17 @@
     <xdr:ext cx="5124450" cy="3133725"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="画像"/>
+        <xdr:cNvPr id="3" name="image1.png" title="画像">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -251,11 +355,17 @@
     <xdr:ext cx="5000625" cy="3019425"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png" title="画像"/>
+        <xdr:cNvPr id="4" name="image4.png" title="画像">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -279,11 +389,17 @@
     <xdr:ext cx="5000625" cy="3028950"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="画像"/>
+        <xdr:cNvPr id="5" name="image3.png" title="画像">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -307,11 +423,17 @@
     <xdr:ext cx="5010150" cy="3019425"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="画像"/>
+        <xdr:cNvPr id="6" name="image2.png" title="画像">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -335,11 +457,17 @@
     <xdr:ext cx="4991100" cy="3009900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.png" title="画像"/>
+        <xdr:cNvPr id="7" name="image6.png" title="画像">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -357,7 +485,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -547,20 +675,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="B3:K129"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="3">
+    <row r="3" spans="8:10">
       <c r="H3" s="1" t="s">
         <v>0</v>
       </c>
@@ -568,7 +701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="8:10">
       <c r="H4" s="2" t="s">
         <v>1</v>
       </c>
@@ -576,7 +709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="8:10">
       <c r="H5" s="2" t="s">
         <v>2</v>
       </c>
@@ -584,7 +717,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="8:10">
       <c r="H6" s="2" t="s">
         <v>1</v>
       </c>
@@ -592,7 +725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="8:10">
       <c r="H7" s="2" t="s">
         <v>4</v>
       </c>
@@ -600,7 +733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="8:10">
       <c r="H8" s="2" t="s">
         <v>1</v>
       </c>
@@ -608,7 +741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="8:10">
       <c r="H9" s="2" t="s">
         <v>6</v>
       </c>
@@ -619,254 +752,257 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="8:10">
       <c r="H10" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="2:11">
       <c r="B17" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="2:11">
       <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K18" s="2"/>
     </row>
-    <row r="19">
+    <row r="19" spans="2:11">
       <c r="B19" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="2:11">
       <c r="B20" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="2:11">
       <c r="B22" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="2:11">
       <c r="H24" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25">
-      <c r="H25" s="2" t="s">
+    <row r="25" spans="2:11">
+      <c r="H25" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="H26" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="26">
-      <c r="H26" s="2" t="s">
+    <row r="27" spans="2:11">
+      <c r="H27" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27">
-      <c r="H27" s="1" t="s">
+    <row r="28" spans="2:11">
+      <c r="H28" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="28">
-      <c r="H28" s="2" t="s">
+    <row r="29" spans="2:11">
+      <c r="H29" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="29">
-      <c r="H29" s="1" t="s">
+    <row r="30" spans="2:11">
+      <c r="H30" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="30">
-      <c r="H30" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31">
+    <row r="31" spans="2:11">
       <c r="H31" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="2:11">
       <c r="H32" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="2:8">
       <c r="H33" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="H34" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="34">
-      <c r="H34" s="2" t="s">
+    <row r="35" spans="2:8">
+      <c r="H35" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="35">
-      <c r="H35" s="2" t="s">
+    <row r="36" spans="2:8">
+      <c r="H36" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="36">
-      <c r="H36" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40">
+    <row r="40" spans="2:8">
       <c r="B40" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="2:8">
       <c r="B41" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="42">
-      <c r="B42" s="2" t="s">
+    <row r="43" spans="2:8">
+      <c r="B43" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="43">
-      <c r="B43" s="2" t="s">
+    <row r="44" spans="2:8">
+      <c r="B44" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="44">
-      <c r="B44" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="45">
+    <row r="45" spans="2:8">
       <c r="B45" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H45" s="2"/>
     </row>
-    <row r="46">
+    <row r="46" spans="2:8">
       <c r="H46" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="2:8">
       <c r="H47" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8">
+      <c r="H48" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8">
+      <c r="H49" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="48">
-      <c r="H48" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="H49" s="2" t="s">
+    <row r="50" spans="2:8">
+      <c r="H50" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8">
+      <c r="H51" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="50">
-      <c r="H50" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="H51" s="2" t="s">
+    <row r="52" spans="2:8">
+      <c r="H52" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="52">
-      <c r="H52" s="2" t="s">
+    <row r="53" spans="2:8">
+      <c r="H53" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8">
+      <c r="B63" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="53">
-      <c r="H53" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="B63" s="2" t="s">
+    <row r="64" spans="2:8">
+      <c r="B64" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8">
+      <c r="B65" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8">
+      <c r="B66" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="64">
-      <c r="B64" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="B65" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="B66" s="2" t="s">
+    <row r="69" spans="2:8">
+      <c r="H69" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8">
+      <c r="H70" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="69">
-      <c r="H69" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="H70" s="1" t="s">
+    <row r="71" spans="2:8">
+      <c r="H71" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8">
+      <c r="H72" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="71">
-      <c r="H71" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="H72" s="2" t="s">
+    <row r="73" spans="2:8">
+      <c r="H73" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="112" spans="8:8">
+      <c r="H112" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="73">
-      <c r="H73" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="B86" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="B87" s="2" t="s">
+    <row r="113" spans="2:8">
+      <c r="H113" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8">
+      <c r="H114" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="128" spans="2:8">
+      <c r="B128" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="112">
-      <c r="H112" s="2" t="s">
+    <row r="129" spans="2:2">
+      <c r="B129" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="113">
-      <c r="H113" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="H114" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="B128" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="B129" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>